--- a/钱包/九月第一周第二周工作计划.xlsx
+++ b/钱包/九月第一周第二周工作计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqf\Documents\GitHub\DailyNote\钱包\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="项目方案" sheetId="1" r:id="rId1"/>
@@ -487,8 +492,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -672,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,44 +744,50 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,72 +796,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -867,14 +812,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -909,7 +854,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,9 +886,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -975,6 +921,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1150,44 +1097,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B31" sqref="B31:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="128.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="128.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.15" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" ht="38.25" hidden="1">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" ht="37.200000000000003" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" hidden="1">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
@@ -1202,8 +1149,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.45" hidden="1" customHeight="1">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:5" ht="20.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1215,8 +1162,8 @@
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="20.45" hidden="1" customHeight="1">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:5" ht="20.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
@@ -1226,8 +1173,8 @@
       <c r="D5" s="8"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="33" hidden="1">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
       <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1237,8 +1184,8 @@
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="20.45" hidden="1" customHeight="1">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:5" ht="20.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
@@ -1248,8 +1195,8 @@
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="20.45" hidden="1" customHeight="1">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:5" ht="20.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1261,8 +1208,8 @@
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="49.5" hidden="1">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:5" ht="46.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
@@ -1272,8 +1219,8 @@
       <c r="D9" s="6"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" hidden="1" customHeight="1">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:5" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
       <c r="B10" s="8" t="s">
         <v>48</v>
       </c>
@@ -1283,8 +1230,8 @@
       <c r="D10" s="6"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="99" hidden="1">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:5" ht="93.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
         <v>59</v>
       </c>
@@ -1294,8 +1241,8 @@
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" ht="33" hidden="1">
-      <c r="A12" s="23"/>
+    <row r="12" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
       <c r="B12" s="8" t="s">
         <v>61</v>
       </c>
@@ -1305,8 +1252,8 @@
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" ht="82.5" hidden="1">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:5" ht="78" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1315,48 +1262,48 @@
       <c r="C13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="32">
         <v>43352</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="33" hidden="1">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
       <c r="B14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" hidden="1" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" hidden="1" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="38.25" hidden="1">
-      <c r="A17" s="27" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" ht="37.200000000000003" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:6" ht="21" hidden="1">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>0</v>
       </c>
@@ -1371,8 +1318,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="66" hidden="1">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:6" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -1388,8 +1335,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="33" hidden="1">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
       <c r="B20" s="20" t="s">
         <v>91</v>
       </c>
@@ -1403,8 +1350,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21" hidden="1" customHeight="1">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
       <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
@@ -1421,7 +1368,7 @@
         <v>43353</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="82.5">
+    <row r="22" spans="1:6" ht="78" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>58</v>
       </c>
@@ -1438,8 +1385,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="49.5" hidden="1">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:6" ht="46.8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1455,8 +1402,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1">
-      <c r="A24" s="23"/>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
       <c r="B24" s="8" t="s">
         <v>7</v>
       </c>
@@ -1470,8 +1417,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="33">
-      <c r="A25" s="23"/>
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
       <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
@@ -1485,8 +1432,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="49.5" hidden="1" customHeight="1">
-      <c r="A26" s="23"/>
+    <row r="26" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
       <c r="B26" s="12" t="s">
         <v>16</v>
       </c>
@@ -1503,8 +1450,8 @@
         <v>43357</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="66" hidden="1">
-      <c r="A27" s="23"/>
+    <row r="27" spans="1:6" ht="62.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
       <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
@@ -1518,12 +1465,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -1533,8 +1480,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21" customHeight="1">
-      <c r="A29" s="23"/>
+    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
       <c r="B29" s="12" t="s">
         <v>14</v>
       </c>
@@ -1548,8 +1495,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="33">
-      <c r="A30" s="23"/>
+    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
       <c r="B30" s="14" t="s">
         <v>15</v>
       </c>
@@ -1563,12 +1510,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21" hidden="1" customHeight="1">
-      <c r="A31" s="23"/>
-      <c r="B31" s="14" t="s">
+    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -1581,12 +1528,12 @@
         <v>43358</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="33" hidden="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="23" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -1599,8 +1546,8 @@
         <v>43358</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="21" hidden="1" customHeight="1">
-      <c r="A33" s="23"/>
+    <row r="33" spans="1:5" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
@@ -1614,8 +1561,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21" hidden="1" customHeight="1">
-      <c r="A34" s="23"/>
+    <row r="34" spans="1:5" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
       <c r="B34" s="12" t="s">
         <v>24</v>
       </c>
@@ -1629,8 +1576,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21" hidden="1" customHeight="1">
-      <c r="A35" s="23"/>
+    <row r="35" spans="1:5" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
       <c r="B35" s="12" t="s">
         <v>25</v>
       </c>
@@ -1644,8 +1591,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33" hidden="1">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
       <c r="B36" s="12" t="s">
         <v>23</v>
       </c>
@@ -1659,7 +1606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="49.5" hidden="1">
+    <row r="37" spans="1:5" ht="50.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -1680,11 +1627,18 @@
   <autoFilter ref="D1:D37">
     <filterColumn colId="0">
       <filters>
+        <filter val="律玲玲"/>
         <filter val="张栋"/>
+        <filter val="张牛、律玲玲"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="A23:A36"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B3"/>
@@ -1693,11 +1647,6 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A23:A36"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1713,22 +1662,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.125" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.09765625" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="99">
+    <row r="1" spans="1:4" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>90</v>
       </c>
@@ -1742,7 +1691,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33">
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
@@ -1756,7 +1705,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1770,7 +1719,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5">
+    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
@@ -1784,7 +1733,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1798,7 +1747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="33">
+    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>

--- a/钱包/九月第一周第二周工作计划.xlsx
+++ b/钱包/九月第一周第二周工作计划.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lqf\Documents\GitHub\DailyNote\钱包\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="24240" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目方案" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
   <si>
     <t>模块</t>
   </si>
@@ -42,10 +37,6 @@
   </si>
   <si>
     <t>消息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账消息</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -164,10 +155,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>汇率接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 姓名、电话、硬件ID、公钥、是否启用、单笔HNB空头额度、单笔HGS空头额度、总HNB空头额度、总HGS空头额度；（总额度要记录累加值）
 2. 添加、删除、修改单笔额度、修改总空投额度</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -199,10 +186,6 @@
   </si>
   <si>
     <t>1. 不知道部署没有，没测试。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 添加ETH兑HNB。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -377,11 +360,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1. 添加ETH兑HNB。
-2. 汇兑的HNB直接冻结。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>后台解冻HNB管理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -486,14 +464,70 @@
   </si>
   <si>
     <t>1. 平台内转账，转入方没有消息提醒。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 添加ETH兑HNB。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇率接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人汇兑总额不超过2ETH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 添加ETH兑HNB。
+2. 汇兑的HNB直接冻结。
+1.获取当前汇兑阶段，无入参，根据服务器日期对比返回数值 0-5
+==&gt; 出个新接口，基于服务器时间返回参数，不要存库里。
+2.汇兑接口 
+入参：eth数，当前汇兑阶段
+==&gt; 汇兑阶段不传，给你传ETH，你自己算。
+逻辑处理：
+1、根据当前汇兑阶段和汇率 按照公式 《汇率*（1+加成比例）》将eth汇兑成HNB
+2、减少账户的eth相应额度
+3、将兑换的HNB保存在冻结表中 
+==&gt;冻结表一定要弄好
+ETH放在第一个显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>律玲玲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 添加ETH兑HNB。
+2. 汇兑的HNB直接冻结。
+1.获取当前汇兑阶段，无入参，根据服务器日期对比返回数值 0-5
+==&gt; 出个新接口，基于服务器时间返回参数，不要存库里。
+2.汇兑接口 
+入参：eth数，当前汇兑阶段
+==&gt; 汇兑阶段不传，给你传ETH，你自己算。
+逻辑处理：
+1、根据当前汇兑阶段和汇率 按照公式 《汇率*（1+加成比例）》将eth汇兑成HNB
+2、减少账户的eth相应额度
+3、将兑换的HNB保存在冻结表中 
+==&gt;冻结表一定要弄好
+ETH放在第一个显示</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -796,6 +830,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFF0000"/>
     </mruColors>
@@ -812,14 +912,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -854,7 +954,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,10 +986,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,7 +1020,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1097,44 +1195,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C32"/>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="128.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="128.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="58.15" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
     </row>
-    <row r="2" spans="1:5" ht="37.200000000000003" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="38.25" hidden="1">
       <c r="A2" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" hidden="1">
       <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
@@ -1143,158 +1241,158 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="20.45" hidden="1" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="20.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="20.45" hidden="1" customHeight="1">
       <c r="A5" s="27"/>
       <c r="B5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="33" hidden="1">
       <c r="A6" s="27"/>
       <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="20.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="20.45" hidden="1" customHeight="1">
       <c r="A7" s="27"/>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="20.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="20.45" hidden="1" customHeight="1">
       <c r="A8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="46.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="49.5" hidden="1">
       <c r="A9" s="34"/>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16.5" hidden="1" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="93.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="99" hidden="1">
       <c r="A11" s="34"/>
       <c r="B11" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="33" hidden="1">
       <c r="A12" s="34"/>
       <c r="B12" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" ht="78" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="82.5" hidden="1">
       <c r="A13" s="28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>57</v>
       </c>
       <c r="E13" s="32">
         <v>43352</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="33" hidden="1">
       <c r="A14" s="29"/>
       <c r="B14" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16.5" hidden="1" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16.5" hidden="1" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:6" ht="37.200000000000003" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="38.25" hidden="1">
       <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
@@ -1303,7 +1401,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:6" ht="20.399999999999999" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="21" hidden="1">
       <c r="A18" s="26" t="s">
         <v>0</v>
       </c>
@@ -1312,315 +1410,329 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="62.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" ht="66">
       <c r="A19" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33">
       <c r="A20" s="27"/>
       <c r="B20" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="C21" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F21" s="21">
         <v>43353</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="78" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="82.5" hidden="1">
       <c r="A22" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="49.5" hidden="1">
+      <c r="A23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="46.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" hidden="1" customHeight="1">
       <c r="A24" s="34"/>
       <c r="B24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="D24" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="33" hidden="1">
       <c r="A25" s="34"/>
       <c r="B25" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="49.5" customHeight="1">
       <c r="A26" s="34"/>
       <c r="B26" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F26" s="21">
         <v>43357</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="62.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="66" hidden="1">
       <c r="A27" s="34"/>
       <c r="B27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" hidden="1" customHeight="1">
       <c r="A28" s="34"/>
       <c r="B28" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" hidden="1" customHeight="1">
       <c r="A29" s="34"/>
       <c r="B29" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="33" hidden="1">
       <c r="A30" s="34"/>
       <c r="B30" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21" customHeight="1">
       <c r="A31" s="34"/>
       <c r="B31" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F31" s="21">
         <v>43358</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="264">
       <c r="A32" s="34"/>
       <c r="B32" s="36" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F32" s="21">
         <v>43358</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="21" hidden="1" customHeight="1">
       <c r="A33" s="34"/>
       <c r="B33" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" hidden="1" customHeight="1">
       <c r="A34" s="34"/>
       <c r="B34" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" hidden="1" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="D35" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="31.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="33" hidden="1">
       <c r="A36" s="29"/>
       <c r="B36" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="50.4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" ht="49.5" hidden="1">
       <c r="A37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="D37" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1740,6 @@
     <filterColumn colId="0">
       <filters>
         <filter val="律玲玲"/>
-        <filter val="张栋"/>
         <filter val="张牛、律玲玲"/>
       </filters>
     </filterColumn>
@@ -1662,103 +1773,117 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.09765625" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.125" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="66">
       <c r="A1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33">
+      <c r="A2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5">
+      <c r="A3" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="49.5">
+      <c r="A4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5">
+      <c r="A5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="C5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="214.5">
+      <c r="A6" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="B6" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>72</v>
+      <c r="C7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/钱包/九月第一周第二周工作计划.xlsx
+++ b/钱包/九月第一周第二周工作计划.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="24240" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="项目方案" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目方案!$D$1:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">项目方案!$D$1:$D$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">项目方案!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
   <si>
     <t>模块</t>
   </si>
@@ -504,22 +503,6 @@
   </si>
   <si>
     <t>1d</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 添加ETH兑HNB。
-2. 汇兑的HNB直接冻结。
-1.获取当前汇兑阶段，无入参，根据服务器日期对比返回数值 0-5
-==&gt; 出个新接口，基于服务器时间返回参数，不要存库里。
-2.汇兑接口 
-入参：eth数，当前汇兑阶段
-==&gt; 汇兑阶段不传，给你传ETH，你自己算。
-逻辑处理：
-1、根据当前汇兑阶段和汇率 按照公式 《汇率*（1+加成比例）》将eth汇兑成HNB
-2、减少账户的eth相应额度
-3、将兑换的HNB保存在冻结表中 
-==&gt;冻结表一定要弄好
-ETH放在第一个显示</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -742,47 +725,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -790,18 +794,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,15 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,17 +1179,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:E38"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A26" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="10" customWidth="1"/>
     <col min="3" max="3" width="128.875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
@@ -1215,28 +1197,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58.15" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" ht="38.25" hidden="1">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" ht="38.25">
+      <c r="A2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" ht="21" hidden="1">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="21">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1247,8 +1229,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.45" hidden="1" customHeight="1">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:5" ht="20.45" customHeight="1">
+      <c r="A4" s="29" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1260,8 +1242,8 @@
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="20.45" hidden="1" customHeight="1">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:5" ht="20.45" customHeight="1">
+      <c r="A5" s="29"/>
       <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
@@ -1271,8 +1253,8 @@
       <c r="D5" s="8"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="33" hidden="1">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:5" ht="33">
+      <c r="A6" s="29"/>
       <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
@@ -1282,8 +1264,8 @@
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="20.45" hidden="1" customHeight="1">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:5" ht="20.45" customHeight="1">
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
@@ -1293,8 +1275,8 @@
       <c r="D7" s="8"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="20.45" hidden="1" customHeight="1">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:5" ht="20.45" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1306,8 +1288,8 @@
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="49.5" hidden="1">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:5" ht="49.5">
+      <c r="A9" s="27"/>
       <c r="B9" s="8" t="s">
         <v>42</v>
       </c>
@@ -1317,8 +1299,8 @@
       <c r="D9" s="6"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" hidden="1" customHeight="1">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
@@ -1328,30 +1310,30 @@
       <c r="D10" s="6"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="99" hidden="1">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:5" ht="99">
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="33" hidden="1">
-      <c r="A12" s="34"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="33">
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" ht="82.5" hidden="1">
-      <c r="A13" s="28" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="82.5">
+      <c r="A13" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1360,52 +1342,52 @@
       <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="35">
         <v>43352</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="33" hidden="1">
-      <c r="A14" s="29"/>
+    <row r="14" spans="1:5" ht="33">
+      <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" hidden="1" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" hidden="1" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" ht="38.25" hidden="1">
-      <c r="A17" s="24" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" ht="38.25">
+      <c r="A17" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="21" hidden="1">
-      <c r="A18" s="26" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="21">
+      <c r="A18" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1417,13 +1399,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="66">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1434,11 +1416,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="33">
-      <c r="A20" s="27"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1449,11 +1431,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1462,12 +1444,10 @@
       <c r="E21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="21">
-        <v>43353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="82.5" hidden="1">
-      <c r="A22" s="10" t="s">
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" ht="82.5">
+      <c r="A22" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1483,8 +1463,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="49.5" hidden="1">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:6" ht="49.5">
+      <c r="A23" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1500,30 +1480,30 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21" hidden="1" customHeight="1">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:6" ht="21" customHeight="1">
+      <c r="A24" s="29"/>
       <c r="B24" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="33" hidden="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="12" t="s">
+    <row r="25" spans="1:6" ht="33">
+      <c r="A25" s="29"/>
+      <c r="B25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -1531,77 +1511,75 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="21">
-        <v>43357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="66" hidden="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="12" t="s">
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" ht="66">
+      <c r="A27" s="29"/>
+      <c r="B27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" hidden="1" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21" hidden="1" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="12" t="s">
+    <row r="29" spans="1:6" ht="21" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="33" hidden="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="14" t="s">
+    <row r="30" spans="1:6" ht="33">
+      <c r="A30" s="29"/>
+      <c r="B30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="7" t="s">
@@ -1609,112 +1587,108 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="21" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>83</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="21">
-        <v>43358</v>
-      </c>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" ht="264">
-      <c r="A32" s="34"/>
-      <c r="B32" s="36" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>83</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="21">
-        <v>43358</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="21" hidden="1" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="12" t="s">
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="21" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>79</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21" hidden="1" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="12" t="s">
+    <row r="34" spans="1:5" ht="21" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21" hidden="1" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="12" t="s">
+    <row r="35" spans="1:5" ht="21" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33" hidden="1">
+    <row r="36" spans="1:5" ht="33">
       <c r="A36" s="29"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="49.5" hidden="1">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:5" ht="49.5">
+      <c r="A37" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="7" t="s">
@@ -1722,34 +1696,25 @@
       </c>
     </row>
     <row r="38" spans="1:5">
+      <c r="A38" s="7"/>
       <c r="B38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="7" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D37">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="律玲玲"/>
-        <filter val="张牛、律玲玲"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="D1:D38">
+    <filterColumn colId="0"/>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="A23:A36"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B3"/>
@@ -1758,6 +1723,11 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A23:A36"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1770,124 +1740,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.125" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="66">
-      <c r="A1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33">
-      <c r="A2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="49.5">
-      <c r="A4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="214.5">
-      <c r="A6" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>